--- a/biology/Botanique/Hackelia/Hackelia.xlsx
+++ b/biology/Botanique/Hackelia/Hackelia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hackelia est un genre de plantes de la famille des Boraginaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (15 août 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (15 août 2017) :
 Hackelia amethystina J.T. Howell
 Hackelia bella (J.F. Macbr.) I.M. Johnston
 Hackelia besseyi (Rydb.) J.L. Gentry
@@ -544,7 +558,7 @@
 Hackelia velutina (Piper) I.M. Johnston
 Hackelia venusta (Piper) St. John
 Hackelia virginiana (L.) I.M. Johnston
-Selon Catalogue of Life                                   (15 août 2017)[3] :
+Selon Catalogue of Life                                   (15 août 2017) :
 Hackelia amethystina Howell
 Hackelia bella (J.F. Macbr.) I. M. Johnst.
 Hackelia besseyi (Rydb.) J.L. Gentry
@@ -591,7 +605,7 @@
 Hackelia velutina (Piper) I. M. Johnst.
 Hackelia venusta (Piper) St. John
 Hackelia virginiana (L.) I. M. Johnst.
-Selon ITIS      (15 août 2017)[4] :
+Selon ITIS      (15 août 2017) :
 Hackelia amethystina J.T. Howell
 Hackelia bella (J.F. Macbr.) I.M. Johnst.
 Hackelia besseyi (Rydb.) J.L. Gentry
@@ -621,7 +635,7 @@
 Hackelia velutina (Piper) I.M. Johnst.
 Hackelia venusta (Piper) H. St. John
 Hackelia virginiana (L.) I.M. Johnst.
-Selon NCBI  (15 août 2017)[5] :
+Selon NCBI  (15 août 2017) :
 Hackelia andicola
 Hackelia bella
 Hackelia deflexa
@@ -633,7 +647,7 @@
 Hackelia thymifolia
 Hackelia velutina
 Hackelia virginiana
-Selon The Plant List            (15 août 2017)[6] :
+Selon The Plant List            (15 août 2017) :
 Hackelia amethystina J.T. Howell
 Hackelia andicola (Krause) Brand
 Hackelia arida (Piper) I.M. Johnst.
@@ -684,7 +698,7 @@
 Hackelia velutina (Piper) I.M. Johnst.
 Hackelia venusta (Piper) H. St. John
 Hackelia virginiana (L.) I.M. Johnst.
-Selon Tropicos                                           (15 août 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 Hackelia americana (A. Gray) Fernald
 Hackelia amethystina J.T. Howell
 Hackelia andicola (Krause) Brand
